--- a/Examples/output/data_compare_properties_2016.xlsx
+++ b/Examples/output/data_compare_properties_2016.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="383">
   <si>
     <t>column_1</t>
   </si>
@@ -232,8 +232,8 @@
     <t>sample_value</t>
   </si>
   <si>
-    <t>17136345
-11251144</t>
+    <t>13083636
+11509852</t>
   </si>
   <si>
     <t>nan_rate</t>
@@ -261,14 +261,14 @@
   </si>
   <si>
     <t>12616704.498
-13100414.497</t>
+13100851.304</t>
   </si>
   <si>
     <t>value_median</t>
   </si>
   <si>
     <t>12211634.0
-12212067.5</t>
+12212044.5</t>
   </si>
   <si>
     <t>value_max</t>
@@ -306,8 +306,8 @@
 1/2</t>
   </si>
   <si>
-    <t>216.0
-732.0</t>
+    <t>651.0
+555.0</t>
   </si>
   <si>
     <t>0.999
@@ -334,8 +334,8 @@
 782.0</t>
   </si>
   <si>
-    <t>1.0
-2.0</t>
+    <t>2.0
+3.0</t>
   </si>
   <si>
     <t>20/10886
@@ -354,6 +354,10 @@
 12.0</t>
   </si>
   <si>
+    <t>3.0
+3.0</t>
+  </si>
+  <si>
     <t>13/10886
 13/10886</t>
   </si>
@@ -362,8 +366,8 @@
 3.087</t>
   </si>
   <si>
-    <t>3.0
-3.0</t>
+    <t>4.0
+4.0</t>
   </si>
   <si>
     <t>0.994
@@ -378,14 +382,14 @@
 3.81</t>
   </si>
   <si>
-    <t>4.0
-4.0</t>
-  </si>
-  <si>
     <t>5.0
 5.0</t>
   </si>
   <si>
+    <t>4.0
+6.0</t>
+  </si>
+  <si>
     <t>0.176
 0.176</t>
   </si>
@@ -395,19 +399,23 @@
   </si>
   <si>
     <t>5.895
-6.153</t>
+6.152</t>
   </si>
   <si>
     <t>7.0
 6.0</t>
   </si>
   <si>
+    <t>3.0
+2.0</t>
+  </si>
+  <si>
     <t>0.037
 0.037</t>
   </si>
   <si>
     <t>19/10484
-19/10482</t>
+19/10483</t>
   </si>
   <si>
     <t>2.226
@@ -426,8 +434,8 @@
 1/76</t>
   </si>
   <si>
-    <t>2270.0
-1436.0</t>
+    <t>1101.0
+968.0</t>
   </si>
   <si>
     <t>0.92
@@ -454,8 +462,8 @@
 4969.0</t>
   </si>
   <si>
-    <t>1527.0
-1701.0</t>
+    <t>780.0
+2143.0</t>
   </si>
   <si>
     <t>0.007
@@ -463,7 +471,7 @@
   </si>
   <si>
     <t>2893/10808
-2897/10803</t>
+2898/10803</t>
   </si>
   <si>
     <t>99.0
@@ -471,7 +479,7 @@
   </si>
   <si>
     <t>1765.551
-1771.074</t>
+1770.913</t>
   </si>
   <si>
     <t>1526.0
@@ -482,8 +490,8 @@
 73026.0</t>
   </si>
   <si>
-    <t>1024.0
-1597.0</t>
+    <t>1591.0
+1980.0</t>
   </si>
   <si>
     <t>0.099
@@ -491,11 +499,11 @@
   </si>
   <si>
     <t>2674/9804
-2674/9799</t>
+2675/9800</t>
   </si>
   <si>
     <t>1681.766
-1684.474</t>
+1684.404</t>
   </si>
   <si>
     <t>1479.0
@@ -506,8 +514,8 @@
 18226.0</t>
   </si>
   <si>
-    <t>1536.0
-1248.0</t>
+    <t>1440.0
+1140.0</t>
   </si>
   <si>
     <t>0.995
@@ -534,8 +542,8 @@
 2400.0</t>
   </si>
   <si>
-    <t>2076.0
-2224.0</t>
+    <t>2206.0
+3616.0</t>
   </si>
   <si>
     <t>0.915
@@ -543,7 +551,7 @@
   </si>
   <si>
     <t>772/923
-773/924</t>
+773/923</t>
   </si>
   <si>
     <t>632.0
@@ -551,15 +559,15 @@
   </si>
   <si>
     <t>2661.755
-2696.69</t>
+2696.636</t>
   </si>
   <si>
     <t>2156.0
-2166.5</t>
-  </si>
-  <si>
-    <t>1382.0
-2052.0</t>
+2169.0</t>
+  </si>
+  <si>
+    <t>1373.0
+1216.0</t>
   </si>
   <si>
     <t>627/869
@@ -578,8 +586,8 @@
 8210.0</t>
   </si>
   <si>
-    <t>996.0
-2700.0</t>
+    <t>2340.0
+1287.0</t>
   </si>
   <si>
     <t>0.997
@@ -607,15 +615,19 @@
   </si>
   <si>
     <t>6037
-6037</t>
+6059</t>
   </si>
   <si>
     <t>3/10886
 3/10886</t>
   </si>
   <si>
+    <t>6037
+6037</t>
+  </si>
+  <si>
     <t>6044.816
-6044.83</t>
+6044.834</t>
   </si>
   <si>
     <t>6037.0
@@ -638,12 +650,12 @@
 1.144</t>
   </si>
   <si>
-    <t>2.0
-1.0</t>
+    <t>3.0
+6.0</t>
   </si>
   <si>
     <t>12/10484
-12/10482</t>
+12/10483</t>
   </si>
   <si>
     <t>2.207
@@ -655,23 +667,23 @@
   </si>
   <si>
     <t>7/1447
-7/1443</t>
+7/1445</t>
   </si>
   <si>
     <t>1.777
-1.78</t>
-  </si>
-  <si>
-    <t>400.0
-0.0</t>
+1.779</t>
+  </si>
+  <si>
+    <t>430.0
+416.0</t>
   </si>
   <si>
     <t>318/1447
-315/1443</t>
+315/1445</t>
   </si>
   <si>
     <t>404.655
-399.505</t>
+399.52</t>
   </si>
   <si>
     <t>440.0
@@ -682,8 +694,8 @@
 2107.0</t>
   </si>
   <si>
-    <t>7.0
-2.0</t>
+    <t>2.0
+7.0</t>
   </si>
   <si>
     <t>0.256
@@ -691,23 +703,23 @@
   </si>
   <si>
     <t>5/8104
-5/8373</t>
+5/8372</t>
   </si>
   <si>
     <t>3.871
-3.949</t>
+3.95</t>
   </si>
   <si>
     <t>20.0
 20.0</t>
   </si>
   <si>
-    <t>33911701
-34234287</t>
+    <t>34285908
+34171507</t>
   </si>
   <si>
     <t>10614/10886
-10614/10886</t>
+10611/10886</t>
   </si>
   <si>
     <t>33340068
@@ -715,23 +727,23 @@
   </si>
   <si>
     <t>34066885.74
-34067594.936</t>
+34067441.999</t>
   </si>
   <si>
     <t>34061045.0
-34061435.0</t>
+34061267.0</t>
   </si>
   <si>
     <t>34786862
 34786862</t>
   </si>
   <si>
-    <t>-118386903
--117946291</t>
+    <t>-118188881
+-118537000</t>
   </si>
   <si>
     <t>10322/10886
-10322/10886</t>
+10321/10886</t>
   </si>
   <si>
     <t>-119448392
@@ -739,19 +751,19 @@
   </si>
   <si>
     <t>-118288364.814
--118289014.957</t>
+-118289095.23</t>
   </si>
   <si>
     <t>-118262131.5
--118263016.0</t>
+-118263243.5</t>
   </si>
   <si>
     <t>-117591889
 -117591889</t>
   </si>
   <si>
-    <t>5052.0
-5278.0</t>
+    <t>5431.0
+210437.0</t>
   </si>
   <si>
     <t>0.027
@@ -759,7 +771,7 @@
   </si>
   <si>
     <t>6492/10587
-6494/10555</t>
+6495/10554</t>
   </si>
   <si>
     <t>195.0
@@ -767,7 +779,7 @@
   </si>
   <si>
     <t>24139.542
-24091.109</t>
+23815.997</t>
   </si>
   <si>
     <t>7000.0
@@ -786,7 +798,7 @@
 1/2024</t>
   </si>
   <si>
-    <t>475.0
+    <t>800.0
 525.0</t>
   </si>
   <si>
@@ -838,8 +850,8 @@
 1/2004</t>
   </si>
   <si>
-    <t>261
-261</t>
+    <t>266
+266</t>
   </si>
   <si>
     <t>13/10886
@@ -851,7 +863,7 @@
   </si>
   <si>
     <t>259.22
-259.208</t>
+259.21</t>
   </si>
   <si>
     <t>261.0
@@ -862,12 +874,12 @@
 275</t>
   </si>
   <si>
-    <t>60377015.011003
-60375313.014003</t>
+    <t>61110010.022009
+60375417.005</t>
   </si>
   <si>
     <t>10006/10886
-10001/10886</t>
+9998/10886</t>
   </si>
   <si>
     <t>60371011.101
@@ -875,27 +887,27 @@
   </si>
   <si>
     <t>60451925.745
-60452064.595</t>
+60452104.393</t>
   </si>
   <si>
     <t>60375007.002
-60375006.503</t>
+60375007.001</t>
   </si>
   <si>
     <t>61110091.003
 61110091.003</t>
   </si>
   <si>
-    <t>47568.0
-12447.0</t>
+    <t>12447.0
+14542.0</t>
   </si>
   <si>
     <t>0.011
-0.014</t>
+0.015</t>
   </si>
   <si>
     <t>160/10767
-159/10730</t>
+159/10728</t>
   </si>
   <si>
     <t>3491.0
@@ -903,7 +915,7 @@
   </si>
   <si>
     <t>37315.208
-37303.905</t>
+37344.649</t>
   </si>
   <si>
     <t>24384.0
@@ -914,24 +926,28 @@
 396556.0</t>
   </si>
   <si>
+    <t>2061
+3101</t>
+  </si>
+  <si>
+    <t>1286
+1286</t>
+  </si>
+  <si>
+    <t>2904.699
+2905.555</t>
+  </si>
+  <si>
+    <t>3101.0
+3101.0</t>
+  </si>
+  <si>
     <t>3101
 3101</t>
   </si>
   <si>
-    <t>1286
-1286</t>
-  </si>
-  <si>
-    <t>2904.699
-2905.888</t>
-  </si>
-  <si>
-    <t>3101.0
-3101.0</t>
-  </si>
-  <si>
-    <t>416304.0
-273539.0</t>
+    <t>48570.0
+27987.0</t>
   </si>
   <si>
     <t>0.567
@@ -939,7 +955,7 @@
   </si>
   <si>
     <t>357/4712
-358/4709</t>
+358/4711</t>
   </si>
   <si>
     <t>6952.0
@@ -947,7 +963,7 @@
   </si>
   <si>
     <t>189464.084
-189423.054</t>
+189538.112</t>
   </si>
   <si>
     <t>118208.0
@@ -958,8 +974,8 @@
 764167.0</t>
   </si>
   <si>
-    <t>96330.0
-97116.0</t>
+    <t>96469.0
+97024.0</t>
   </si>
   <si>
     <t>0.001
@@ -975,7 +991,7 @@
   </si>
   <si>
     <t>96498.755
-96498.232</t>
+96497.977</t>
   </si>
   <si>
     <t>96295.0
@@ -986,12 +1002,16 @@
 399675.0</t>
   </si>
   <si>
+    <t>5.0
+0.0</t>
+  </si>
+  <si>
     <t>12/10886
 12/10886</t>
   </si>
   <si>
     <t>0.828
-0.816</t>
+0.817</t>
   </si>
   <si>
     <t>1/8
@@ -1014,12 +1034,16 @@
 6.0</t>
   </si>
   <si>
+    <t>1.0
+4.0</t>
+  </si>
+  <si>
     <t>0.164
 0.164</t>
   </si>
   <si>
     <t>8/9105
-8/9102</t>
+8/9100</t>
   </si>
   <si>
     <t>1.166
@@ -1030,8 +1054,8 @@
 48.0</t>
   </si>
   <si>
-    <t>264.0
-328.0</t>
+    <t>100.0
+300.0</t>
   </si>
   <si>
     <t>0.965
@@ -1058,8 +1082,8 @@
 1672.0</t>
   </si>
   <si>
-    <t>560.0
-26.0</t>
+    <t>1280.0
+96.0</t>
   </si>
   <si>
     <t>13/14
@@ -1082,8 +1106,8 @@
 1280.0</t>
   </si>
   <si>
-    <t>1964.0
-1921.0</t>
+    <t>1949.0
+1969.0</t>
   </si>
   <si>
     <t>0.01
@@ -1099,7 +1123,7 @@
   </si>
   <si>
     <t>1958.022
-1958.158</t>
+1958.157</t>
   </si>
   <si>
     <t>1956.0
@@ -1115,15 +1139,15 @@
   </si>
   <si>
     <t>4/1466
-4/1465</t>
+4/1467</t>
   </si>
   <si>
     <t>1.324
 1.324</t>
   </si>
   <si>
-    <t>156142.0
-202321.0</t>
+    <t>74508.0
+513883.0</t>
   </si>
   <si>
     <t>0.019
@@ -1131,23 +1155,23 @@
   </si>
   <si>
     <t>8956/10676
-9081/10669</t>
+9082/10670</t>
   </si>
   <si>
     <t>158895.393
-165536.232</t>
+165512.656</t>
   </si>
   <si>
     <t>114569.5
-119889.0</t>
+119887.5</t>
   </si>
   <si>
     <t>13115017.0
 13315021.0</t>
   </si>
   <si>
-    <t>772887.0
-84378.0</t>
+    <t>32073.0
+69326.0</t>
   </si>
   <si>
     <t>0.014
@@ -1155,7 +1179,7 @@
   </si>
   <si>
     <t>9606/10729
-9769/10730</t>
+9768/10730</t>
   </si>
   <si>
     <t>9.0
@@ -1163,11 +1187,11 @@
   </si>
   <si>
     <t>393562.275
-412886.04</t>
+412819.839</t>
   </si>
   <si>
     <t>279835.0
-292750.5</t>
+292682.0</t>
   </si>
   <si>
     <t>29713710.0
@@ -1194,8 +1218,8 @@
 2016.0</t>
   </si>
   <si>
-    <t>511213.0
-88200.0</t>
+    <t>130636.0
+236728.0</t>
   </si>
   <si>
     <t>0.017
@@ -1207,19 +1231,19 @@
   </si>
   <si>
     <t>236112.013
-249103.427</t>
+249045.052</t>
   </si>
   <si>
     <t>150708.0
-158092.0</t>
+158000.0</t>
   </si>
   <si>
     <t>22101269.0
 22101269.0</t>
   </si>
   <si>
-    <t>5057.34
-4274.47</t>
+    <t>3917.28
+2449.48</t>
   </si>
   <si>
     <t>0.007
@@ -1227,7 +1251,7 @@
   </si>
   <si>
     <t>10747/10811
-10754/10811</t>
+10753/10811</t>
   </si>
   <si>
     <t>19.07
@@ -1235,7 +1259,7 @@
   </si>
   <si>
     <t>5069.74
-5084.355</t>
+5083.314</t>
   </si>
   <si>
     <t>3711.73
@@ -1246,28 +1270,28 @@
 362406.91</t>
   </si>
   <si>
+    <t>14.0
+14.0</t>
+  </si>
+  <si>
+    <t>0.976
+0.976</t>
+  </si>
+  <si>
+    <t>9/257
+9/258</t>
+  </si>
+  <si>
+    <t>13.84
+13.845</t>
+  </si>
+  <si>
     <t>15.0
 15.0</t>
   </si>
   <si>
-    <t>0.976
-0.976</t>
-  </si>
-  <si>
-    <t>9/257
-9/257</t>
-  </si>
-  <si>
-    <t>13.84
-13.844</t>
-  </si>
-  <si>
-    <t>14.0
-14.0</t>
-  </si>
-  <si>
-    <t>60374638002012.0
-60590421132001.0</t>
+    <t>60374617002000.0
+60372312201008.0</t>
   </si>
   <si>
     <t>0.027
@@ -1275,7 +1299,7 @@
   </si>
   <si>
     <t>9761/10589
-9724/10547</t>
+9721/10547</t>
   </si>
   <si>
     <t>60371011101005.0
@@ -1283,11 +1307,11 @@
   </si>
   <si>
     <t>60452544186170.77
-60452280008564.8</t>
+60452321084840.92</t>
   </si>
   <si>
     <t>60375004032020.0
-60375002023002.0</t>
+60375002024008.0</t>
   </si>
   <si>
     <t>61110091003005.0
@@ -1331,7 +1355,7 @@
   </si>
   <si>
     <t>0100
-0101</t>
+0100</t>
   </si>
   <si>
     <t>62/10883
@@ -1368,16 +1392,16 @@
     <t>1110</t>
   </si>
   <si>
-    <t>LCA16000*
-LCA1*</t>
+    <t>LBR2N
+LHRA1*</t>
   </si>
   <si>
     <t>0.159
-0.158</t>
+0.159</t>
   </si>
   <si>
     <t>1054/9155
-1062/9162</t>
+1061/9160</t>
   </si>
   <si>
     <t>LAR1</t>
@@ -1416,7 +1440,7 @@
   </si>
   <si>
     <t>1/257
-1/257</t>
+1/258</t>
   </si>
   <si>
     <t>Y</t>
@@ -4536,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
       <c r="H52" s="2" t="s"/>
     </row>
@@ -4728,7 +4752,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="18"/>
-    <col customWidth="1" max="2" min="2" width="51"/>
+    <col customWidth="1" max="2" min="2" width="52.5"/>
     <col customWidth="1" max="3" min="3" width="90"/>
   </cols>
   <sheetData>
@@ -5199,7 +5223,7 @@
         <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52" s="8" t="n">
         <v/>
@@ -5219,7 +5243,7 @@
         <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" s="9" t="n"/>
     </row>
@@ -5237,7 +5261,7 @@
         <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56" s="9" t="n"/>
     </row>
@@ -5246,7 +5270,7 @@
         <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C57" s="9" t="n"/>
     </row>
@@ -5289,7 +5313,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C62" s="8" t="n">
         <v/>
@@ -5300,7 +5324,7 @@
         <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C63" s="9" t="n"/>
     </row>
@@ -5309,7 +5333,7 @@
         <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C64" s="9" t="n"/>
     </row>
@@ -5327,7 +5351,7 @@
         <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C66" s="9" t="n"/>
     </row>
@@ -5336,7 +5360,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C67" s="9" t="n"/>
     </row>
@@ -5379,7 +5403,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C72" s="8" t="n">
         <v/>
@@ -5390,7 +5414,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C73" s="9" t="n"/>
     </row>
@@ -5399,7 +5423,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C74" s="9" t="n"/>
     </row>
@@ -5417,7 +5441,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C76" s="9" t="n"/>
     </row>
@@ -5426,7 +5450,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C77" s="9" t="n"/>
     </row>
@@ -5469,7 +5493,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C82" s="8" t="n">
         <v/>
@@ -5480,7 +5504,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C83" s="9" t="n"/>
     </row>
@@ -5489,7 +5513,7 @@
         <v>74</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C84" s="9" t="n"/>
     </row>
@@ -5507,7 +5531,7 @@
         <v>78</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C86" s="9" t="n"/>
     </row>
@@ -5559,7 +5583,7 @@
         <v>70</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C92" s="8" t="n">
         <v/>
@@ -5570,7 +5594,7 @@
         <v>72</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C93" s="9" t="n"/>
     </row>
@@ -5579,7 +5603,7 @@
         <v>74</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C94" s="9" t="n"/>
     </row>
@@ -5588,7 +5612,7 @@
         <v>76</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C95" s="9" t="n"/>
     </row>
@@ -5597,7 +5621,7 @@
         <v>78</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C96" s="9" t="n"/>
     </row>
@@ -5606,7 +5630,7 @@
         <v>80</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C97" s="9" t="n"/>
     </row>
@@ -5615,7 +5639,7 @@
         <v>82</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C98" s="9" t="n"/>
     </row>
@@ -5649,7 +5673,7 @@
         <v>70</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C102" s="8" t="n">
         <v/>
@@ -5660,7 +5684,7 @@
         <v>72</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C103" s="9" t="n"/>
     </row>
@@ -5669,7 +5693,7 @@
         <v>74</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C104" s="9" t="n"/>
     </row>
@@ -5678,7 +5702,7 @@
         <v>76</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C105" s="9" t="n"/>
     </row>
@@ -5687,7 +5711,7 @@
         <v>78</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C106" s="9" t="n"/>
     </row>
@@ -5696,7 +5720,7 @@
         <v>80</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C107" s="9" t="n"/>
     </row>
@@ -5705,7 +5729,7 @@
         <v>82</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C108" s="9" t="n"/>
     </row>
@@ -5739,7 +5763,7 @@
         <v>70</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C112" s="8" t="n">
         <v/>
@@ -5750,7 +5774,7 @@
         <v>72</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C113" s="9" t="n"/>
     </row>
@@ -5759,7 +5783,7 @@
         <v>74</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C114" s="9" t="n"/>
     </row>
@@ -5768,7 +5792,7 @@
         <v>76</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C115" s="9" t="n"/>
     </row>
@@ -5777,7 +5801,7 @@
         <v>78</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C116" s="9" t="n"/>
     </row>
@@ -5786,7 +5810,7 @@
         <v>80</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C117" s="9" t="n"/>
     </row>
@@ -5795,7 +5819,7 @@
         <v>82</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C118" s="9" t="n"/>
     </row>
@@ -5829,7 +5853,7 @@
         <v>70</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C122" s="8" t="n">
         <v/>
@@ -5840,7 +5864,7 @@
         <v>72</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C123" s="9" t="n"/>
     </row>
@@ -5849,7 +5873,7 @@
         <v>74</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C124" s="9" t="n"/>
     </row>
@@ -5858,7 +5882,7 @@
         <v>76</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C125" s="9" t="n"/>
     </row>
@@ -5867,7 +5891,7 @@
         <v>78</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C126" s="9" t="n"/>
     </row>
@@ -5876,7 +5900,7 @@
         <v>80</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C127" s="9" t="n"/>
     </row>
@@ -5885,7 +5909,7 @@
         <v>82</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C128" s="9" t="n"/>
     </row>
@@ -5919,7 +5943,7 @@
         <v>70</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C132" s="8" t="n">
         <v/>
@@ -5930,7 +5954,7 @@
         <v>72</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C133" s="9" t="n"/>
     </row>
@@ -5939,7 +5963,7 @@
         <v>74</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C134" s="9" t="n"/>
     </row>
@@ -5948,7 +5972,7 @@
         <v>76</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C135" s="9" t="n"/>
     </row>
@@ -5957,7 +5981,7 @@
         <v>78</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C136" s="9" t="n"/>
     </row>
@@ -5966,7 +5990,7 @@
         <v>80</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C137" s="9" t="n"/>
     </row>
@@ -5975,7 +5999,7 @@
         <v>82</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C138" s="9" t="n"/>
     </row>
@@ -6009,7 +6033,7 @@
         <v>70</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C142" s="8" t="n">
         <v/>
@@ -6020,7 +6044,7 @@
         <v>72</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C143" s="9" t="n"/>
     </row>
@@ -6029,7 +6053,7 @@
         <v>74</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C144" s="9" t="n"/>
     </row>
@@ -6038,7 +6062,7 @@
         <v>76</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C145" s="9" t="n"/>
     </row>
@@ -6047,7 +6071,7 @@
         <v>78</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C146" s="9" t="n"/>
     </row>
@@ -6056,7 +6080,7 @@
         <v>80</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C147" s="9" t="n"/>
     </row>
@@ -6065,7 +6089,7 @@
         <v>82</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C148" s="9" t="n"/>
     </row>
@@ -6099,7 +6123,7 @@
         <v>70</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C152" s="8" t="n">
         <v/>
@@ -6110,7 +6134,7 @@
         <v>72</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C153" s="9" t="n"/>
     </row>
@@ -6119,7 +6143,7 @@
         <v>74</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C154" s="9" t="n"/>
     </row>
@@ -6128,7 +6152,7 @@
         <v>76</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C155" s="9" t="n"/>
     </row>
@@ -6137,7 +6161,7 @@
         <v>78</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C156" s="9" t="n"/>
     </row>
@@ -6146,7 +6170,7 @@
         <v>80</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C157" s="9" t="n"/>
     </row>
@@ -6155,7 +6179,7 @@
         <v>82</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C158" s="9" t="n"/>
     </row>
@@ -6189,7 +6213,7 @@
         <v>70</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C162" s="8" t="n">
         <v/>
@@ -6200,7 +6224,7 @@
         <v>72</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C163" s="9" t="n"/>
     </row>
@@ -6209,7 +6233,7 @@
         <v>74</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C164" s="9" t="n"/>
     </row>
@@ -6218,7 +6242,7 @@
         <v>76</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C165" s="9" t="n"/>
     </row>
@@ -6227,7 +6251,7 @@
         <v>78</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C166" s="9" t="n"/>
     </row>
@@ -6236,7 +6260,7 @@
         <v>80</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C167" s="9" t="n"/>
     </row>
@@ -6245,7 +6269,7 @@
         <v>82</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C168" s="9" t="n"/>
     </row>
@@ -6279,7 +6303,7 @@
         <v>70</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C172" s="8" t="n">
         <v/>
@@ -6299,7 +6323,7 @@
         <v>74</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C174" s="9" t="n"/>
     </row>
@@ -6308,7 +6332,7 @@
         <v>76</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C175" s="9" t="n"/>
     </row>
@@ -6317,7 +6341,7 @@
         <v>78</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C176" s="9" t="n"/>
     </row>
@@ -6326,7 +6350,7 @@
         <v>80</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C177" s="9" t="n"/>
     </row>
@@ -6335,7 +6359,7 @@
         <v>82</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C178" s="9" t="n"/>
     </row>
@@ -6380,7 +6404,7 @@
         <v>72</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C183" s="9" t="n"/>
     </row>
@@ -6389,7 +6413,7 @@
         <v>74</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C184" s="9" t="n"/>
     </row>
@@ -6407,7 +6431,7 @@
         <v>78</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C186" s="9" t="n"/>
     </row>
@@ -6425,7 +6449,7 @@
         <v>82</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C188" s="9" t="n"/>
     </row>
@@ -6459,7 +6483,7 @@
         <v>70</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C192" s="8" t="n">
         <v/>
@@ -6470,7 +6494,7 @@
         <v>72</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C193" s="9" t="n"/>
     </row>
@@ -6479,7 +6503,7 @@
         <v>74</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C194" s="9" t="n"/>
     </row>
@@ -6497,7 +6521,7 @@
         <v>78</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C196" s="9" t="n"/>
     </row>
@@ -6549,7 +6573,7 @@
         <v>70</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="C202" s="8" t="n">
         <v/>
@@ -6560,7 +6584,7 @@
         <v>72</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C203" s="9" t="n"/>
     </row>
@@ -6569,7 +6593,7 @@
         <v>74</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C204" s="9" t="n"/>
     </row>
@@ -6587,7 +6611,7 @@
         <v>78</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C206" s="9" t="n"/>
     </row>
@@ -6639,7 +6663,7 @@
         <v>70</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C212" s="8" t="n">
         <v/>
@@ -6650,7 +6674,7 @@
         <v>72</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C213" s="9" t="n"/>
     </row>
@@ -6659,7 +6683,7 @@
         <v>74</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C214" s="9" t="n"/>
     </row>
@@ -6677,7 +6701,7 @@
         <v>78</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C216" s="9" t="n"/>
     </row>
@@ -6686,7 +6710,7 @@
         <v>80</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C217" s="9" t="n"/>
     </row>
@@ -6695,7 +6719,7 @@
         <v>82</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C218" s="9" t="n"/>
     </row>
@@ -6729,7 +6753,7 @@
         <v>70</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C222" s="8" t="n">
         <v/>
@@ -6740,7 +6764,7 @@
         <v>72</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C223" s="9" t="n"/>
     </row>
@@ -6749,7 +6773,7 @@
         <v>74</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C224" s="9" t="n"/>
     </row>
@@ -6767,7 +6791,7 @@
         <v>78</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C226" s="9" t="n"/>
     </row>
@@ -6785,7 +6809,7 @@
         <v>82</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C228" s="9" t="n"/>
     </row>
@@ -6819,7 +6843,7 @@
         <v>70</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C232" s="8" t="n">
         <v/>
@@ -6839,7 +6863,7 @@
         <v>74</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C234" s="9" t="n"/>
     </row>
@@ -6848,7 +6872,7 @@
         <v>76</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C235" s="9" t="n"/>
     </row>
@@ -6857,7 +6881,7 @@
         <v>78</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C236" s="9" t="n"/>
     </row>
@@ -6866,7 +6890,7 @@
         <v>80</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C237" s="9" t="n"/>
     </row>
@@ -6875,7 +6899,7 @@
         <v>82</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C238" s="9" t="n"/>
     </row>
@@ -6909,7 +6933,7 @@
         <v>70</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C242" s="8" t="n">
         <v/>
@@ -6929,7 +6953,7 @@
         <v>74</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C244" s="9" t="n"/>
     </row>
@@ -6938,7 +6962,7 @@
         <v>76</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C245" s="9" t="n"/>
     </row>
@@ -6947,7 +6971,7 @@
         <v>78</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C246" s="9" t="n"/>
     </row>
@@ -6956,7 +6980,7 @@
         <v>80</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C247" s="9" t="n"/>
     </row>
@@ -6965,7 +6989,7 @@
         <v>82</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C248" s="9" t="n"/>
     </row>
@@ -6999,7 +7023,7 @@
         <v>70</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C252" s="8" t="n">
         <v/>
@@ -7010,7 +7034,7 @@
         <v>72</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C253" s="9" t="n"/>
     </row>
@@ -7019,7 +7043,7 @@
         <v>74</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C254" s="9" t="n"/>
     </row>
@@ -7028,7 +7052,7 @@
         <v>76</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C255" s="9" t="n"/>
     </row>
@@ -7037,7 +7061,7 @@
         <v>78</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C256" s="9" t="n"/>
     </row>
@@ -7046,7 +7070,7 @@
         <v>80</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C257" s="9" t="n"/>
     </row>
@@ -7055,7 +7079,7 @@
         <v>82</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C258" s="9" t="n"/>
     </row>
@@ -7100,7 +7124,7 @@
         <v>72</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C263" s="9" t="n"/>
     </row>
@@ -7109,7 +7133,7 @@
         <v>74</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C264" s="9" t="n"/>
     </row>
@@ -7179,7 +7203,7 @@
         <v>70</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C272" s="8" t="n">
         <v/>
@@ -7190,7 +7214,7 @@
         <v>72</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C273" s="9" t="n"/>
     </row>
@@ -7199,7 +7223,7 @@
         <v>74</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C274" s="9" t="n"/>
     </row>
@@ -7208,7 +7232,7 @@
         <v>76</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C275" s="9" t="n"/>
     </row>
@@ -7217,7 +7241,7 @@
         <v>78</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C276" s="9" t="n"/>
     </row>
@@ -7226,7 +7250,7 @@
         <v>80</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C277" s="9" t="n"/>
     </row>
@@ -7235,7 +7259,7 @@
         <v>82</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C278" s="9" t="n"/>
     </row>
@@ -7280,7 +7304,7 @@
         <v>72</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C283" s="9" t="n"/>
     </row>
@@ -7289,7 +7313,7 @@
         <v>74</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C284" s="9" t="n"/>
     </row>
@@ -7370,7 +7394,7 @@
         <v>72</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C293" s="9" t="n"/>
     </row>
@@ -7379,7 +7403,7 @@
         <v>74</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C294" s="9" t="n"/>
     </row>
@@ -7460,7 +7484,7 @@
         <v>72</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C303" s="9" t="n"/>
     </row>
@@ -7469,7 +7493,7 @@
         <v>74</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C304" s="9" t="n"/>
     </row>
@@ -7539,7 +7563,7 @@
         <v>70</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C312" s="8" t="n">
         <v/>
@@ -7559,7 +7583,7 @@
         <v>74</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C314" s="9" t="n"/>
     </row>
@@ -7568,7 +7592,7 @@
         <v>76</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C315" s="9" t="n"/>
     </row>
@@ -7577,7 +7601,7 @@
         <v>78</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C316" s="9" t="n"/>
     </row>
@@ -7586,7 +7610,7 @@
         <v>80</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C317" s="9" t="n"/>
     </row>
@@ -7595,7 +7619,7 @@
         <v>82</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C318" s="9" t="n"/>
     </row>
@@ -7629,7 +7653,7 @@
         <v>70</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C322" s="8" t="n">
         <v/>
@@ -7649,7 +7673,7 @@
         <v>74</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C324" s="9" t="n"/>
     </row>
@@ -7658,7 +7682,7 @@
         <v>76</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C325" s="9" t="n"/>
     </row>
@@ -7667,7 +7691,7 @@
         <v>78</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C326" s="9" t="n"/>
     </row>
@@ -7676,7 +7700,7 @@
         <v>80</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C327" s="9" t="n"/>
     </row>
@@ -7685,7 +7709,7 @@
         <v>82</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C328" s="9" t="n"/>
     </row>
@@ -7719,7 +7743,7 @@
         <v>70</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C332" s="8" t="n">
         <v/>
@@ -7730,7 +7754,7 @@
         <v>72</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C333" s="9" t="n"/>
     </row>
@@ -7739,7 +7763,7 @@
         <v>74</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C334" s="9" t="n"/>
     </row>
@@ -7748,7 +7772,7 @@
         <v>76</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C335" s="9" t="n"/>
     </row>
@@ -7757,7 +7781,7 @@
         <v>78</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C336" s="9" t="n"/>
     </row>
@@ -7766,7 +7790,7 @@
         <v>80</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C337" s="9" t="n"/>
     </row>
@@ -7775,7 +7799,7 @@
         <v>82</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C338" s="9" t="n"/>
     </row>
@@ -7809,7 +7833,7 @@
         <v>70</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C342" s="8" t="n">
         <v/>
@@ -7829,7 +7853,7 @@
         <v>74</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C344" s="9" t="n"/>
     </row>
@@ -7838,7 +7862,7 @@
         <v>76</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C345" s="9" t="n"/>
     </row>
@@ -7847,7 +7871,7 @@
         <v>78</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C346" s="9" t="n"/>
     </row>
@@ -7856,7 +7880,7 @@
         <v>80</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C347" s="9" t="n"/>
     </row>
@@ -7865,7 +7889,7 @@
         <v>82</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C348" s="9" t="n"/>
     </row>
@@ -7899,7 +7923,7 @@
         <v>70</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C352" s="8" t="n">
         <v/>
@@ -7910,7 +7934,7 @@
         <v>72</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C353" s="9" t="n"/>
     </row>
@@ -7919,7 +7943,7 @@
         <v>74</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C354" s="9" t="n"/>
     </row>
@@ -7928,7 +7952,7 @@
         <v>76</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C355" s="9" t="n"/>
     </row>
@@ -7937,7 +7961,7 @@
         <v>78</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C356" s="9" t="n"/>
     </row>
@@ -7946,7 +7970,7 @@
         <v>80</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C357" s="9" t="n"/>
     </row>
@@ -7955,7 +7979,7 @@
         <v>82</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C358" s="9" t="n"/>
     </row>
@@ -7989,7 +8013,7 @@
         <v>70</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C362" s="8" t="n">
         <v/>
@@ -8000,7 +8024,7 @@
         <v>72</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C363" s="9" t="n"/>
     </row>
@@ -8009,7 +8033,7 @@
         <v>74</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C364" s="9" t="n"/>
     </row>
@@ -8018,7 +8042,7 @@
         <v>76</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C365" s="9" t="n"/>
     </row>
@@ -8027,7 +8051,7 @@
         <v>78</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C366" s="9" t="n"/>
     </row>
@@ -8036,7 +8060,7 @@
         <v>80</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C367" s="9" t="n"/>
     </row>
@@ -8045,7 +8069,7 @@
         <v>82</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C368" s="9" t="n"/>
     </row>
@@ -8079,7 +8103,7 @@
         <v>70</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="C372" s="8" t="n">
         <v/>
@@ -8099,7 +8123,7 @@
         <v>74</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C374" s="9" t="n"/>
     </row>
@@ -8117,7 +8141,7 @@
         <v>78</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C376" s="9" t="n"/>
     </row>
@@ -8189,7 +8213,7 @@
         <v>74</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C384" s="9" t="n"/>
     </row>
@@ -8270,7 +8294,7 @@
         <v>72</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C393" s="9" t="n"/>
     </row>
@@ -8279,7 +8303,7 @@
         <v>74</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C394" s="9" t="n"/>
     </row>
@@ -8297,7 +8321,7 @@
         <v>78</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C396" s="9" t="n"/>
     </row>
@@ -8349,7 +8373,7 @@
         <v>70</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C402" s="8" t="n">
         <v/>
@@ -8378,7 +8402,7 @@
         <v>76</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C405" s="9" t="n"/>
     </row>
@@ -8387,7 +8411,7 @@
         <v>78</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C406" s="9" t="n"/>
     </row>
@@ -8396,7 +8420,7 @@
         <v>80</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C407" s="9" t="n"/>
     </row>
@@ -8405,7 +8429,7 @@
         <v>82</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C408" s="9" t="n"/>
     </row>
@@ -8439,7 +8463,7 @@
         <v>70</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="C412" s="8" t="n">
         <v/>
@@ -8450,7 +8474,7 @@
         <v>72</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C413" s="9" t="n"/>
     </row>
@@ -8459,7 +8483,7 @@
         <v>74</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C414" s="9" t="n"/>
     </row>
@@ -8477,7 +8501,7 @@
         <v>78</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C416" s="9" t="n"/>
     </row>
@@ -8495,7 +8519,7 @@
         <v>82</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C418" s="9" t="n"/>
     </row>
@@ -8529,7 +8553,7 @@
         <v>70</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C422" s="8" t="n">
         <v/>
@@ -8540,7 +8564,7 @@
         <v>72</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C423" s="9" t="n"/>
     </row>
@@ -8549,7 +8573,7 @@
         <v>74</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C424" s="9" t="n"/>
     </row>
@@ -8558,7 +8582,7 @@
         <v>76</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C425" s="9" t="n"/>
     </row>
@@ -8567,7 +8591,7 @@
         <v>78</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C426" s="9" t="n"/>
     </row>
@@ -8576,7 +8600,7 @@
         <v>80</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C427" s="9" t="n"/>
     </row>
@@ -8585,7 +8609,7 @@
         <v>82</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C428" s="9" t="n"/>
     </row>
@@ -8619,7 +8643,7 @@
         <v>70</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C432" s="8" t="n">
         <v/>
@@ -8639,7 +8663,7 @@
         <v>74</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C434" s="9" t="n"/>
     </row>
@@ -8648,7 +8672,7 @@
         <v>76</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C435" s="9" t="n"/>
     </row>
@@ -8657,7 +8681,7 @@
         <v>78</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C436" s="9" t="n"/>
     </row>
@@ -8666,7 +8690,7 @@
         <v>80</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C437" s="9" t="n"/>
     </row>
@@ -8675,7 +8699,7 @@
         <v>82</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C438" s="9" t="n"/>
     </row>
@@ -8709,7 +8733,7 @@
         <v>70</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C442" s="8" t="n">
         <v/>
@@ -8720,7 +8744,7 @@
         <v>72</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C443" s="9" t="n"/>
     </row>
@@ -8729,7 +8753,7 @@
         <v>74</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C444" s="9" t="n"/>
     </row>
@@ -8738,7 +8762,7 @@
         <v>76</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C445" s="9" t="n"/>
     </row>
@@ -8747,7 +8771,7 @@
         <v>78</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C446" s="9" t="n"/>
     </row>
@@ -8756,7 +8780,7 @@
         <v>80</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C447" s="9" t="n"/>
     </row>
@@ -8765,7 +8789,7 @@
         <v>82</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C448" s="9" t="n"/>
     </row>
@@ -8810,7 +8834,7 @@
         <v>72</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C453" s="9" t="n"/>
     </row>
@@ -8819,7 +8843,7 @@
         <v>74</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C454" s="9" t="n"/>
     </row>
@@ -8837,7 +8861,7 @@
         <v>78</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C456" s="9" t="n"/>
     </row>
@@ -8855,7 +8879,7 @@
         <v>82</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C458" s="9" t="n"/>
     </row>
@@ -8889,7 +8913,7 @@
         <v>70</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C462" s="8" t="n">
         <v/>
@@ -8900,7 +8924,7 @@
         <v>72</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C463" s="9" t="n"/>
     </row>
@@ -8909,7 +8933,7 @@
         <v>74</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C464" s="9" t="n"/>
     </row>
@@ -8927,7 +8951,7 @@
         <v>78</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C466" s="9" t="n"/>
     </row>
@@ -8936,7 +8960,7 @@
         <v>80</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C467" s="9" t="n"/>
     </row>
@@ -8945,7 +8969,7 @@
         <v>82</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C468" s="9" t="n"/>
     </row>
@@ -8954,7 +8978,7 @@
         <v>6</v>
       </c>
       <c r="B469" s="11" t="n">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
       <c r="C469" s="12" t="n"/>
     </row>
@@ -8979,7 +9003,7 @@
         <v>70</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C472" s="8" t="n">
         <v/>
@@ -8990,7 +9014,7 @@
         <v>72</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C473" s="9" t="n"/>
     </row>
@@ -8999,7 +9023,7 @@
         <v>74</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C474" s="9" t="n"/>
     </row>
@@ -9008,7 +9032,7 @@
         <v>76</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C475" s="9" t="n"/>
     </row>
@@ -9017,7 +9041,7 @@
         <v>78</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C476" s="9" t="n"/>
     </row>
@@ -9026,7 +9050,7 @@
         <v>80</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C477" s="9" t="n"/>
     </row>
@@ -9035,7 +9059,7 @@
         <v>82</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C478" s="9" t="n"/>
     </row>
@@ -9069,7 +9093,7 @@
         <v>70</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C482" s="8" t="n">
         <v/>
@@ -9089,7 +9113,7 @@
         <v>74</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C484" s="9" t="n"/>
     </row>
@@ -9098,7 +9122,7 @@
         <v>76</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C485" s="9" t="n"/>
     </row>
@@ -9107,7 +9131,7 @@
         <v>78</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C486" s="9" t="n"/>
     </row>
@@ -9116,7 +9140,7 @@
         <v>80</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C487" s="9" t="n"/>
     </row>
@@ -9125,7 +9149,7 @@
         <v>82</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C488" s="9" t="n"/>
     </row>
@@ -9159,7 +9183,7 @@
         <v>70</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C492" s="8" t="n">
         <v/>
@@ -9170,7 +9194,7 @@
         <v>72</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C493" s="9" t="n"/>
     </row>
@@ -9179,7 +9203,7 @@
         <v>74</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C494" s="9" t="n"/>
     </row>
@@ -9188,7 +9212,7 @@
         <v>76</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C495" s="9" t="n"/>
     </row>
@@ -9197,7 +9221,7 @@
         <v>78</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C496" s="9" t="n"/>
     </row>
@@ -9206,7 +9230,7 @@
         <v>80</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C497" s="9" t="n"/>
     </row>
@@ -9215,7 +9239,7 @@
         <v>82</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C498" s="9" t="n"/>
     </row>
@@ -9249,7 +9273,7 @@
         <v>70</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C502" s="8" t="n">
         <v/>
@@ -9260,7 +9284,7 @@
         <v>72</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C503" s="9" t="n"/>
     </row>
@@ -9269,7 +9293,7 @@
         <v>74</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C504" s="9" t="n"/>
     </row>
@@ -9278,7 +9302,7 @@
         <v>76</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C505" s="9" t="n"/>
     </row>
@@ -9287,7 +9311,7 @@
         <v>78</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C506" s="9" t="n"/>
     </row>
@@ -9296,7 +9320,7 @@
         <v>80</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C507" s="9" t="n"/>
     </row>
@@ -9305,7 +9329,7 @@
         <v>82</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C508" s="9" t="n"/>
     </row>
@@ -9339,7 +9363,7 @@
         <v>70</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C512" s="8" t="n">
         <v/>
@@ -9350,7 +9374,7 @@
         <v>72</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C513" s="9" t="n"/>
     </row>
@@ -9359,7 +9383,7 @@
         <v>74</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C514" s="9" t="n"/>
     </row>
@@ -9377,7 +9401,7 @@
         <v>78</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C516" s="9" t="n"/>
     </row>
@@ -9386,7 +9410,7 @@
         <v>80</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C517" s="9" t="n"/>
     </row>
@@ -9395,7 +9419,7 @@
         <v>82</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C518" s="9" t="n"/>
     </row>
@@ -9429,7 +9453,7 @@
         <v>70</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C522" s="8" t="n">
         <v/>
@@ -9440,7 +9464,7 @@
         <v>72</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C523" s="9" t="n"/>
     </row>
@@ -9449,7 +9473,7 @@
         <v>74</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C524" s="9" t="n"/>
     </row>
@@ -9458,7 +9482,7 @@
         <v>76</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C525" s="9" t="n"/>
     </row>
@@ -9467,7 +9491,7 @@
         <v>78</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C526" s="9" t="n"/>
     </row>
@@ -9476,7 +9500,7 @@
         <v>80</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C527" s="9" t="n"/>
     </row>
@@ -9485,7 +9509,7 @@
         <v>82</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C528" s="9" t="n"/>
     </row>
@@ -9598,7 +9622,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C2" s="14" t="n">
         <v/>
@@ -9609,7 +9633,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C3" s="14" t="n">
         <v/>
@@ -9620,7 +9644,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C4" s="14" t="n">
         <v/>
@@ -9628,7 +9652,7 @@
     </row>
     <row customHeight="1" ht="40" r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1</v>
@@ -9639,7 +9663,7 @@
     </row>
     <row customHeight="1" ht="40" r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0</v>
@@ -9650,7 +9674,7 @@
     </row>
     <row customHeight="1" ht="40" r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
@@ -9672,18 +9696,18 @@
     </row>
     <row customHeight="1" ht="25" r="9" spans="1:3">
       <c r="A9" s="15" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>10761</v>
@@ -9694,7 +9718,7 @@
     </row>
     <row customHeight="1" ht="25" r="11" spans="1:3">
       <c r="A11" s="10" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B11" s="11" t="n">
         <v>125</v>
@@ -9722,7 +9746,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C14" s="14" t="n">
         <v/>
@@ -9744,7 +9768,7 @@
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C16" s="14" t="n">
         <v/>
@@ -9752,7 +9776,7 @@
     </row>
     <row customHeight="1" ht="40" r="17" spans="1:3">
       <c r="A17" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>61</v>
@@ -9763,7 +9787,7 @@
     </row>
     <row customHeight="1" ht="40" r="18" spans="1:3">
       <c r="A18" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>1</v>
@@ -9774,7 +9798,7 @@
     </row>
     <row customHeight="1" ht="40" r="19" spans="1:3">
       <c r="A19" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
@@ -9796,62 +9820,62 @@
     </row>
     <row customHeight="1" ht="25" r="21" spans="1:3">
       <c r="A21" s="15" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="22" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>5547</v>
       </c>
       <c r="C22" s="14" t="n">
-        <v>5541</v>
+        <v>5539</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="23" spans="1:3">
       <c r="A23" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1215</v>
       </c>
       <c r="C23" s="14" t="n">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="24" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>911</v>
       </c>
       <c r="C24" s="14" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>573</v>
       </c>
       <c r="C25" s="14" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>553</v>
@@ -9862,7 +9886,7 @@
     </row>
     <row customHeight="1" ht="25" r="27" spans="1:3">
       <c r="A27" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>476</v>
@@ -9873,7 +9897,7 @@
     </row>
     <row customHeight="1" ht="25" r="28" spans="1:3">
       <c r="A28" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>213</v>
@@ -9884,7 +9908,7 @@
     </row>
     <row customHeight="1" ht="25" r="29" spans="1:3">
       <c r="A29" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>198</v>
@@ -9895,7 +9919,7 @@
     </row>
     <row customHeight="1" ht="25" r="30" spans="1:3">
       <c r="A30" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>184</v>
@@ -9906,7 +9930,7 @@
     </row>
     <row customHeight="1" ht="25" r="31" spans="1:3">
       <c r="A31" s="10" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B31" s="11" t="n">
         <v>165</v>
@@ -9934,7 +9958,7 @@
         <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C34" s="14" t="n">
         <v/>
@@ -9945,7 +9969,7 @@
         <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C35" s="14" t="n">
         <v/>
@@ -9956,7 +9980,7 @@
         <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C36" s="14" t="n">
         <v/>
@@ -9964,10 +9988,10 @@
     </row>
     <row customHeight="1" ht="40" r="37" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C37" s="14" t="n">
         <v/>
@@ -9975,10 +9999,10 @@
     </row>
     <row customHeight="1" ht="40" r="38" spans="1:3">
       <c r="A38" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="14" t="n">
         <v/>
@@ -9986,7 +10010,7 @@
     </row>
     <row customHeight="1" ht="40" r="39" spans="1:3">
       <c r="A39" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>8</v>
@@ -10008,29 +10032,29 @@
     </row>
     <row customHeight="1" ht="25" r="41" spans="1:3">
       <c r="A41" s="15" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="42" spans="1:3">
       <c r="A42" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>1731</v>
       </c>
       <c r="C42" s="14" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="43" spans="1:3">
       <c r="A43" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>1333</v>
@@ -10041,7 +10065,7 @@
     </row>
     <row customHeight="1" ht="25" r="44" spans="1:3">
       <c r="A44" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>276</v>
@@ -10052,7 +10076,7 @@
     </row>
     <row customHeight="1" ht="25" r="45" spans="1:3">
       <c r="A45" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>265</v>
@@ -10063,18 +10087,18 @@
     </row>
     <row customHeight="1" ht="25" r="46" spans="1:3">
       <c r="A46" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>241</v>
       </c>
       <c r="C46" s="14" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="47" spans="1:3">
       <c r="A47" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>236</v>
@@ -10085,7 +10109,7 @@
     </row>
     <row customHeight="1" ht="25" r="48" spans="1:3">
       <c r="A48" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>191</v>
@@ -10096,7 +10120,7 @@
     </row>
     <row customHeight="1" ht="25" r="49" spans="1:3">
       <c r="A49" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>141</v>
@@ -10107,18 +10131,18 @@
     </row>
     <row customHeight="1" ht="25" r="50" spans="1:3">
       <c r="A50" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>137</v>
       </c>
       <c r="C50" s="14" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="51" spans="1:3">
       <c r="A51" s="10" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B51" s="11" t="n">
         <v>134</v>
@@ -10146,7 +10170,7 @@
         <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C54" s="14" t="n">
         <v/>
@@ -10168,7 +10192,7 @@
         <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C56" s="14" t="n">
         <v/>
@@ -10176,7 +10200,7 @@
     </row>
     <row customHeight="1" ht="40" r="57" spans="1:3">
       <c r="A57" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>1</v>
@@ -10187,7 +10211,7 @@
     </row>
     <row customHeight="1" ht="40" r="58" spans="1:3">
       <c r="A58" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>0</v>
@@ -10198,7 +10222,7 @@
     </row>
     <row customHeight="1" ht="40" r="59" spans="1:3">
       <c r="A59" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>0</v>
@@ -10220,18 +10244,18 @@
     </row>
     <row customHeight="1" ht="25" r="61" spans="1:3">
       <c r="A61" s="15" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="62" spans="1:3">
       <c r="A62" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>10882</v>
@@ -10242,7 +10266,7 @@
     </row>
     <row customHeight="1" ht="25" r="63" spans="1:3">
       <c r="A63" s="10" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B63" s="11" t="n">
         <v>4</v>
@@ -10270,7 +10294,7 @@
         <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C66" s="14" t="n">
         <v/>
@@ -10281,7 +10305,7 @@
         <v>72</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C67" s="14" t="n">
         <v/>
@@ -10292,7 +10316,7 @@
         <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C68" s="14" t="n">
         <v/>
@@ -10300,7 +10324,7 @@
     </row>
     <row customHeight="1" ht="40" r="69" spans="1:3">
       <c r="A69" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>1</v>
@@ -10311,7 +10335,7 @@
     </row>
     <row customHeight="1" ht="40" r="70" spans="1:3">
       <c r="A70" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>0</v>
@@ -10322,7 +10346,7 @@
     </row>
     <row customHeight="1" ht="40" r="71" spans="1:3">
       <c r="A71" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B71" s="2" t="n">
         <v>0</v>
@@ -10344,35 +10368,35 @@
     </row>
     <row customHeight="1" ht="25" r="73" spans="1:3">
       <c r="A73" s="15" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="74" spans="1:3">
       <c r="A74" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>10629</v>
       </c>
       <c r="C74" s="14" t="n">
-        <v>10629</v>
+        <v>10628</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="75" spans="1:3">
       <c r="A75" s="10" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B75" s="11" t="n">
         <v>257</v>
       </c>
       <c r="C75" s="18" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row customHeight="1" ht="40" r="76" spans="1:3">
